--- a/PageObjectModelProject/TestData/UserHome.xlsx
+++ b/PageObjectModelProject/TestData/UserHome.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFF414-5C7A-4C30-9593-24F9E6E480D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD3250E-3D4F-4704-B68B-2D7E60879AEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserHome" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>testId</t>
   </si>
@@ -59,16 +59,12 @@
   </si>
   <si>
     <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,17 +421,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -480,9 +478,6 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
